--- a/docs/peminat SNBP 2023.xlsx
+++ b/docs/peminat SNBP 2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\#PMB\2023\01_SNBP\23snbp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E1A3B8-DD88-4987-8046-98AABB090B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA32C396-B4D8-4A15-989C-AFE2DD3628CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24F402FF-5C50-4FB5-A31C-FF55383BE2F9}"/>
   </bookViews>
@@ -374,9 +374,6 @@
     <t>54,48</t>
   </si>
   <si>
-    <t>PERPAJAKAN</t>
-  </si>
-  <si>
     <t>38,40</t>
   </si>
   <si>
@@ -516,6 +513,9 @@
   </si>
   <si>
     <t>minat</t>
+  </si>
+  <si>
+    <t>ADMINISTRASI PAJAK</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -966,37 +966,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="5">
         <v>45</v>
@@ -1048,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="7">
         <v>70</v>
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F4" s="5">
         <v>45</v>
@@ -1118,7 +1118,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7">
         <v>30</v>
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="5">
         <v>150</v>
@@ -1188,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="7">
         <v>10</v>
@@ -1223,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="5">
         <v>60</v>
@@ -1258,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" s="7">
         <v>30</v>
@@ -1293,7 +1293,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="5">
         <v>40</v>
@@ -1328,7 +1328,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7">
         <v>10</v>
@@ -1363,7 +1363,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" s="5">
         <v>20</v>
@@ -1398,7 +1398,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7">
         <v>12</v>
@@ -1433,7 +1433,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F14" s="5">
         <v>50</v>
@@ -1468,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" s="7">
         <v>40</v>
@@ -1503,7 +1503,7 @@
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" s="5">
         <v>40</v>
@@ -1538,7 +1538,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F17" s="7">
         <v>40</v>
@@ -1573,7 +1573,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="5">
         <v>40</v>
@@ -1608,7 +1608,7 @@
         <v>54</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F19" s="7">
         <v>70</v>
@@ -1643,7 +1643,7 @@
         <v>57</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F20" s="5">
         <v>40</v>
@@ -1678,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7">
         <v>30</v>
@@ -1713,7 +1713,7 @@
         <v>61</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="5">
         <v>40</v>
@@ -1748,7 +1748,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F23" s="7">
         <v>40</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="5">
         <v>40</v>
@@ -1818,7 +1818,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7">
         <v>17</v>
@@ -1853,7 +1853,7 @@
         <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="5">
         <v>60</v>
@@ -1888,7 +1888,7 @@
         <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="7">
         <v>40</v>
@@ -1923,7 +1923,7 @@
         <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="5">
         <v>30</v>
@@ -1958,7 +1958,7 @@
         <v>82</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7">
         <v>20</v>
@@ -1993,7 +1993,7 @@
         <v>85</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F30" s="5">
         <v>40</v>
@@ -2028,7 +2028,7 @@
         <v>88</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F31" s="7">
         <v>20</v>
@@ -2063,7 +2063,7 @@
         <v>91</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="5">
         <v>30</v>
@@ -2098,7 +2098,7 @@
         <v>94</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F33" s="7">
         <v>20</v>
@@ -2133,7 +2133,7 @@
         <v>97</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="5">
         <v>50</v>
@@ -2168,7 +2168,7 @@
         <v>100</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F35" s="7">
         <v>20</v>
@@ -2203,7 +2203,7 @@
         <v>103</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F36" s="5">
         <v>20</v>
@@ -2238,7 +2238,7 @@
         <v>106</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="7">
         <v>30</v>
@@ -2273,7 +2273,7 @@
         <v>109</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38" s="5">
         <v>10</v>
@@ -2305,10 +2305,10 @@
         <v>311048</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F39" s="7">
         <v>22</v>
@@ -2317,13 +2317,13 @@
         <v>48</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I39" s="7">
         <v>77</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K39" s="11">
         <v>125</v>
@@ -2340,10 +2340,10 @@
         <v>311014</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" s="5">
         <v>20</v>
@@ -2352,13 +2352,13 @@
         <v>51</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I40" s="5">
         <v>68</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K40" s="11">
         <v>119</v>
@@ -2375,10 +2375,10 @@
         <v>311045</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="7">
         <v>22</v>
@@ -2387,13 +2387,13 @@
         <v>29</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I41" s="7">
         <v>85</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K41" s="11">
         <v>114</v>
@@ -2410,10 +2410,10 @@
         <v>311012</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" s="5">
         <v>20</v>
@@ -2422,13 +2422,13 @@
         <v>37</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I42" s="5">
         <v>55</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K42" s="11">
         <v>92</v>
@@ -2445,10 +2445,10 @@
         <v>311047</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F43" s="7">
         <v>22</v>
@@ -2457,13 +2457,13 @@
         <v>28</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I43" s="7">
         <v>61</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="11">
         <v>89</v>
@@ -2480,10 +2480,10 @@
         <v>311041</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F44" s="5">
         <v>20</v>
@@ -2492,13 +2492,13 @@
         <v>38</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" s="5">
         <v>41</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K44" s="11">
         <v>79</v>
@@ -2515,10 +2515,10 @@
         <v>311030</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F45" s="7">
         <v>30</v>
@@ -2527,13 +2527,13 @@
         <v>26</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I45" s="7">
         <v>53</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K45" s="11">
         <v>79</v>
@@ -2550,10 +2550,10 @@
         <v>311013</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F46" s="5">
         <v>20</v>
@@ -2562,13 +2562,13 @@
         <v>38</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I46" s="5">
         <v>35</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K46" s="11">
         <v>73</v>
@@ -2585,10 +2585,10 @@
         <v>311049</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F47" s="7">
         <v>10</v>
@@ -2597,13 +2597,13 @@
         <v>10</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I47" s="7">
         <v>63</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K47" s="11">
         <v>73</v>
@@ -2623,7 +2623,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="5">
         <v>22</v>
@@ -2632,13 +2632,13 @@
         <v>19</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I48" s="5">
         <v>53</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K48" s="11">
         <v>72</v>
@@ -2655,10 +2655,10 @@
         <v>311039</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F49" s="7">
         <v>20</v>
@@ -2667,13 +2667,13 @@
         <v>37</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I49" s="7">
         <v>15</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K49" s="11">
         <v>52</v>
